--- a/excel_data/2019_data/Win19_wk2_B.xlsx
+++ b/excel_data/2019_data/Win19_wk2_B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BED0BD-987E-4C40-A6BC-1C4F1D292328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959C7EDB-3163-4617-BB0D-0A7DA38230C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{66050E09-027C-48BC-972A-C077B645019C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t>Hopkins</t>
-  </si>
-  <si>
-    <t>Regents Parking Lots</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9F9FE9-735A-48A1-9DDF-C39E9B718612}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3479,10 +3476,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15">
-      <c r="A34" s="59" t="s">
-        <v>63</v>
-      </c>
+    <row r="34" spans="1:23">
+      <c r="A34" s="59"/>
       <c r="B34" s="35" t="s">
         <v>32</v>
       </c>
@@ -3550,10 +3545,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="43.2">
-      <c r="A35" s="37" t="s">
-        <v>63</v>
-      </c>
+    <row r="35" spans="1:23">
+      <c r="A35" s="37"/>
       <c r="B35" s="30" t="s">
         <v>33</v>
       </c>
